--- a/biology/Botanique/Liste_de_parcs_et_jardins_publics_de_France/Liste_de_parcs_et_jardins_publics_de_France.xlsx
+++ b/biology/Botanique/Liste_de_parcs_et_jardins_publics_de_France/Liste_de_parcs_et_jardins_publics_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de parcs et jardins publics de France recense l'ensemble des jardins publics, parcs publics et espaces verts appartenant aux collectivités territoriales de France. Les parcs et jardins appartenant à des institutions ou des établissements publics français figurant dans cette liste sont des propriétés privées.
 Certains jardins sont protégés en partie ou en totalité au titre des monuments historiques (classement ou inscription sur l'inventaire supplémentaire), ou labellisés  Jardin remarquable.
@@ -512,12 +524,12 @@
           <t>Alsace</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Bas-Rhin
-.
-Haut-Rhin</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -542,17 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aquitaine</t>
+          <t>Alsace</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Dordogne
-Gironde
-Landes
-Lot-et-Garonne
-Pyrénées-Atlantiques</t>
+          <t>Bas-Rhin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">.
+</t>
         </is>
       </c>
     </row>
@@ -577,16 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Auvergne</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Allier
- Inscrit MH (Monument historique)
-Cantal
-Haute-Loire
-Puy-de-Dôme</t>
+          <t>Aquitaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -611,16 +624,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bourgogne</t>
+          <t>Auvergne</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Côte-d'Or
-Nièvre
-Saône-et-Loire
-Yonne</t>
+          <t>Allier</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -645,16 +661,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bretagne</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Côtes-d'Armor
-Finistère
-Ille-et-Vilaine
-Morbihan</t>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -679,18 +694,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Cher
-Eure-et-Loir
-Indre
-Indre-et-Loire
-Loir-et-Cher
-Loiret</t>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -715,16 +727,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Champagne-Ardenne</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Ardennes
-Aube
-Marne
-Haute-Marne</t>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -749,13 +760,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Corse</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Haute-Corse
-Corse-du-Sud</t>
+          <t>Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -780,15 +793,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Franche-Comté</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Doubs
-Jura
-Haute-Saône
-Territoire-de-Belfort</t>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique) - EVE : label espace végétal écologique
+</t>
         </is>
       </c>
     </row>
@@ -818,15 +831,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique) - EVE : label espace végétal écologique
-Paris
-Seine-et-Marne
-Yvelines
-Essonne
-Hauts-de-Seine
-Seine-Saint-Denis
-Val-de-Marne
-Val-d'Oise</t>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -854,14 +866,12 @@
           <t>Languedoc-Roussillon</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Aude
-Gard
-Hérault
-Lozère
-Pyrénées-Orientales</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -889,12 +899,12 @@
           <t>Limousin</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Corrèze
-Creuse
-Haute-Vienne</t>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -922,13 +932,12 @@
           <t>Lorraine</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Meurthe-et-Moselle
-Meuse
-Moselle
-Vosges</t>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -956,17 +965,12 @@
           <t>Midi-Pyrénées</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Ariège
-Aveyron
-Haute-Garonne
-Gers
-Lot
-Hautes-Pyrénées
-Tarn
-Tarn-et-Garonne</t>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -994,11 +998,12 @@
           <t>Nord-Pas-de-Calais</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Nord
-Pas-de-Calais</t>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -1026,14 +1031,12 @@
           <t>Normandie</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Calvados
-Eure
-Seine-Maritime
-Manche
-Orne</t>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -1061,14 +1064,12 @@
           <t>Pays de la Loire</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Loire-Atlantique
-Maine-et-Loire
-Mayenne
-Sarthe
-Vendée</t>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1097,12 @@
           <t>Picardie</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Aisne
-Oise
-Somme</t>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -1129,13 +1130,12 @@
           <t>Poitou-Charentes</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Charente
-Charente-Maritime
-Deux-Sèvres
-Vienne</t>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
@@ -1163,16 +1163,11 @@
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique) 
-Alpes-de-Haute-Provence
-Hautes-Alpes
-Alpes-Maritimes
-Bouches-du-Rhône
-Var
-Vaucluse
-Liste des parcs et jardins de la région PACA, dans le cadre de l’opération « Parcs et jardins « Rendez-vous aux jardins » du 31 mai au 2 juin 2013 »
 </t>
         </is>
       </c>
@@ -1198,20 +1193,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rhône-Alpes</t>
+          <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Ain
-Ardèche
-Drôme
-Isère
-Loire
-Rhône
-Savoie
-Haute-Savoie</t>
+          <t>Vaucluse</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des parcs et jardins de la région PACA, dans le cadre de l’opération « Parcs et jardins « Rendez-vous aux jardins » du 31 mai au 2 juin 2013 »
+</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1230,48 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins_publics_de_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins_publics_de_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Départements et régions d'outre-mer (DROM)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
-Guadeloupe
-Guyane
-Martinique
-Mayotte
-La Réunion</t>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jardin remarquable -  Inscrit MH (Monument historique)
+</t>
         </is>
       </c>
     </row>
